--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>006234</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>万家汽车新趋势混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.84</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,25 +616,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>78.84</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -609,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +673,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +703,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -678,25 +741,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +779,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +817,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -762,25 +855,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -790,25 +893,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -818,25 +931,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>005413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>金信民长灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +969,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1007,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,7 +1016,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -1031,6 +1031,176 @@
       </c>
       <c r="H10" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1206,4 +1207,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1215,7 +1216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,17 +1227,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1246,14 +1267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.57</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1262,14 +1305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.19</v>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1278,13 +1343,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1386,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,17 +1398,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1417,14 +1438,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1433,14 +1476,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -1449,14 +1582,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
@@ -1465,13 +1598,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1519,7 +1520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,17 +1531,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1571,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1566,14 +1609,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.26</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1582,14 +1647,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.57</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1598,14 +1685,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">
@@ -1614,13 +1823,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,198 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3662</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -657,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -708,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>010824</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>天弘创新成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>80.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5042</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -746,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3521</t>
+          <t>0.0604</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -784,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2399</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -822,219 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>010825</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>天弘创新成长混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>80.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0461</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1099,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9767</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1137,73 +885,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5069</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0822</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1388,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1439,36 +1149,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.9767</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1477,35 +1187,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.5069</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1520,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,7 +1289,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1571,36 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010824</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘创新成长混合A</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>96.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.5042</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1609,36 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>79.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0604</t>
+          <t>0.3521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1647,32 +1395,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0570</t>
+          <t>0.2399</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1685,36 +1433,219 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010825</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘创新成长混合C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0461</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1728,128 +1659,197 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.42</v>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -915,176 +1026,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6711</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3906</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1060,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1149,36 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9767</t>
+          <t>0.6711</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1187,36 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>78.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5069</t>
+          <t>0.3906</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1235,26 +1176,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.2026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1263,6 +1204,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1653,7 +1764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
+++ b/数据整理/stocks/A股/科创板/688021-奥福环保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +711,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,176 +1137,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6711</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3906</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1171,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1260,36 +1201,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9767</t>
+          <t>0.6711</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1298,36 +1239,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>78.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5069</t>
+          <t>0.3906</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1346,26 +1287,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.2026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1315,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1764,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
